--- a/SP_Sklad/TempLate/RepOrdMat.xlsx
+++ b/SP_Sklad/TempLate/RepOrdMat.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$M$15</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$M$14</definedName>
     <definedName name="MatList">Лист1!$A$12:$M$13</definedName>
     <definedName name="MoveRange">Лист1!#REF!</definedName>
     <definedName name="OrdRange">Лист1!#REF!</definedName>
@@ -18,7 +18,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -185,24 +185,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color indexed="16"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -229,8 +213,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,12 +244,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -580,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,25 +602,56 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,49 +689,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,11 +1068,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:M78"/>
+  <dimension ref="B1:M77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1115,19 +1093,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1204,38 +1182,38 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="32" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="33"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1259,12 +1237,12 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="36">
         <v>2</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="10">
         <v>3</v>
       </c>
@@ -1287,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1302,34 +1280,34 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="e">
+      <c r="B11" s="32" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="45" t="e">
+      <c r="C12" s="26" t="e">
         <f>MatList_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="16" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
@@ -1359,72 +1337,59 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="2:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21" t="s">
+      <c r="L13" s="23"/>
+      <c r="M13" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+    <row r="14" spans="2:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19" t="e">
+        <f>K14-I14</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="53" t="e">
-        <f>K15-I15</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
+    <row r="15" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1478,21 +1443,20 @@
     <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/RepOrdMat.xlsx
+++ b/SP_Sklad/TempLate/RepOrdMat.xlsx
@@ -623,9 +623,60 @@
     <xf numFmtId="2" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -635,12 +686,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,51 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,11 +1068,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:M77"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1093,19 +1093,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1182,38 +1182,38 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="39" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="29" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="40"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="40"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1237,12 +1237,12 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="10">
         <v>3</v>
       </c>
@@ -1280,34 +1280,34 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="e">
+      <c r="B11" s="47" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="26" t="e">
+      <c r="C12" s="43" t="e">
         <f>MatList_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="16" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
@@ -1338,16 +1338,16 @@
       </c>
     </row>
     <row r="13" spans="2:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="23"/>
@@ -1359,15 +1359,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="2:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19" t="s">
         <v>15</v>
@@ -1383,80 +1383,20 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/RepOrdMat.xlsx
+++ b/SP_Sklad/TempLate/RepOrdMat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F89093-F63B-4F83-867E-FDBE70AB6968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,17 +24,47 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Назва товару</t>
-  </si>
-  <si>
-    <t>Всього по відомості:</t>
   </si>
   <si>
     <t>Код</t>
@@ -70,16 +106,13 @@
     <t>Відгружено</t>
   </si>
   <si>
-    <t>sum_TotalOrd</t>
-  </si>
-  <si>
-    <t>sum_TotalOut</t>
+    <t>Всього по відомості, кг:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
@@ -245,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -422,19 +455,6 @@
       <bottom style="hair">
         <color indexed="23"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -563,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,7 +595,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,37 +613,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -668,22 +693,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,9 +718,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -776,6 +798,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -823,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,9 +881,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,6 +933,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1066,20 +1125,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:M15"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
@@ -1088,24 +1147,24 @@
     <col min="9" max="10" width="11.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1123,7 +1182,7 @@
     </row>
     <row r="3" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
@@ -1141,7 +1200,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="8" t="e">
@@ -1160,7 +1219,7 @@
     </row>
     <row r="5" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="e">
@@ -1182,67 +1241,67 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="38" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="31"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="30">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="10">
         <v>3</v>
       </c>
@@ -1280,117 +1339,154 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="e">
+      <c r="B11" s="50" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="27" t="e">
+        <f>MatGroup_TotalAmountOrd</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27" t="e">
+        <f>MatGroup_TotalAmountOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="27" t="e">
+        <f>J11-H11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="e">
-        <f>MatList_BARCODE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" s="43" t="e">
+      <c r="B12" t="e" cm="1">
+        <f t="array" ref="B12">MatList_MatId</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="46" t="e">
         <f>MatList_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="16" t="e">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="15" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="17" t="e">
+      <c r="H12" s="16" t="e">
         <f>MatList_AMOUNTORD</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="17" t="e">
+      <c r="I12" s="16" t="e">
         <f>MatList_TOTALORD</f>
         <v>#NAME?</v>
       </c>
-      <c r="J12" s="17" t="e">
+      <c r="J12" s="16" t="e">
         <f>MatList_AMOUNTOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="K12" s="17" t="e">
+      <c r="K12" s="16" t="e">
         <f>MatList_TOTALOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="L12" s="17" t="e">
+      <c r="L12" s="16" t="e">
         <f>J12-H12</f>
         <v>#NAME?</v>
       </c>
-      <c r="M12" s="17" t="e">
+      <c r="M12" s="16" t="e">
         <f>K12-I12</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="25" t="s">
+      <c r="B13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24" t="s">
-        <v>12</v>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="19" t="e">
-        <f>K14-I14</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
-    <row r="15" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="18" t="e" cm="1">
+        <f t="array" ref="H15">SummaryField_TotalAmountOrd</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I15" s="18" t="e" cm="1">
+        <f t="array" ref="I15">SummaryField_TotalOrd</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" s="18" t="e" cm="1">
+        <f t="array" ref="J15">SummaryField_TotalAmountOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K15" s="18" t="e" cm="1">
+        <f t="array" ref="K15">SummaryField_TotalOut</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L15" s="28" t="e">
+        <f>J15-H15</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M15" s="17" t="e">
+        <f>K15-I15</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B7:B8"/>
@@ -1401,7 +1497,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
   </headerFooter>
